--- a/ejercicio 1/Normalizacion Tabla 1.xlsx
+++ b/ejercicio 1/Normalizacion Tabla 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de5c09b496cdff15/Documents/Workbench/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanb\OneDrive\Escritorio\Lab1_Bases_De_Datos\ejercicio 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{ECBF977F-9005-46B9-9130-9A7F059D471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49428864-D990-4FA0-ABDF-F5B5051D6707}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AA631-53CF-4073-9B44-9CBDE3356331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D8802AF8-8B77-432C-AFFD-1576AB8EB74C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D8802AF8-8B77-432C-AFFD-1576AB8EB74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
   <si>
     <t>IDVenta</t>
   </si>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,21 +280,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Énfasis2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,27 +634,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917E8316-D878-46A4-BD00-8463EAC07350}">
-  <dimension ref="B2:I72"/>
+  <dimension ref="B2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.8984375" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="9" max="9" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="27.6">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -691,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -711,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -731,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -751,7 +754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -771,12 +774,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="17.399999999999999">
       <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="27.6">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -818,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -839,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -860,7 +863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -881,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9">
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -902,7 +905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9">
       <c r="B20" s="7">
         <v>3</v>
       </c>
@@ -923,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9">
       <c r="B21" s="7">
         <v>3</v>
       </c>
@@ -944,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="B22" s="7">
         <v>4</v>
       </c>
@@ -965,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -986,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="B24" s="7">
         <v>4</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9">
       <c r="B25" s="7">
         <v>5</v>
       </c>
@@ -1028,22 +1031,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="17.399999999999999">
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="2:9">
+      <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="F30" s="12" t="s">
+      <c r="C30" s="14"/>
+      <c r="F30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9">
       <c r="B32" s="2">
         <v>1</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="2">
         <v>2</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" s="2">
         <v>3</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" s="2">
         <v>4</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="2">
         <v>5</v>
       </c>
@@ -1182,30 +1185,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="2:9">
+      <c r="B39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9">
       <c r="B41" s="7">
         <v>1</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9">
       <c r="B42" s="7">
         <v>2</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9">
       <c r="B43" s="7">
         <v>3</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9">
       <c r="B44" s="7">
         <v>4</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9">
       <c r="B45" s="7">
         <v>5</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9">
       <c r="E46" s="7">
         <v>3</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="E47" s="7">
         <v>3</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9">
       <c r="E48" s="7">
         <v>4</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11">
       <c r="E49" s="7">
         <v>4</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11">
       <c r="E50" s="7">
         <v>4</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11">
       <c r="E51" s="7">
         <v>5</v>
       </c>
@@ -1323,243 +1326,330 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" ht="17.399999999999999">
       <c r="B54" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="E57" s="12" t="s">
+    <row r="57" spans="2:11">
+      <c r="B57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="E57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="2:11" ht="27.6">
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="I58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
         <f>$C$15</f>
         <v>45672</v>
       </c>
-      <c r="G59" s="2">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7" t="s">
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11">
       <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2">
-        <v>2</v>
-      </c>
-      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="7">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="3">
         <v>45673</v>
       </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
-      <c r="H60" s="7" t="s">
+      <c r="J60" s="2">
+        <v>2</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11">
       <c r="B61" s="2">
-        <v>2</v>
-      </c>
-      <c r="C61" s="5">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2">
-        <v>3</v>
-      </c>
-      <c r="F61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="7">
+        <v>3</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3</v>
+      </c>
+      <c r="I61" s="3">
         <v>45674</v>
       </c>
-      <c r="G61" s="2">
-        <v>3</v>
-      </c>
-      <c r="H61" s="7" t="s">
+      <c r="J61" s="2">
+        <v>3</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11">
       <c r="B62" s="2">
-        <v>2</v>
-      </c>
-      <c r="C62" s="5">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="7">
+        <v>4</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="2">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>45675</v>
       </c>
-      <c r="G62" s="2">
-        <v>4</v>
-      </c>
-      <c r="H62" s="7" t="s">
+      <c r="J62" s="2">
+        <v>4</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11">
       <c r="B63" s="2">
-        <v>2</v>
-      </c>
-      <c r="C63" s="5">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2">
-        <v>5</v>
-      </c>
-      <c r="F63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="7">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="2">
+        <v>5</v>
+      </c>
+      <c r="I63" s="3">
         <v>45676</v>
       </c>
-      <c r="G63" s="2">
-        <v>5</v>
-      </c>
-      <c r="H63" s="7" t="s">
+      <c r="J63" s="2">
+        <v>5</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="7">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="7">
-        <v>3</v>
-      </c>
-      <c r="C65" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="7">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="14" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="E67" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="7">
-        <v>4</v>
-      </c>
-      <c r="C67" s="5">
-        <v>3</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="E68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="7">
-        <v>4</v>
-      </c>
-      <c r="C68" s="5">
-        <v>4</v>
-      </c>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="7">
-        <v>5</v>
+    <row r="69" spans="2:6">
+      <c r="B69" s="2">
+        <v>1</v>
       </c>
       <c r="C69" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
       <c r="E70" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3</v>
+      </c>
       <c r="E71" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5">
+        <v>4</v>
+      </c>
       <c r="E72" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5</v>
+      </c>
+      <c r="E73" s="7">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="7">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="7">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="7">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="7">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="7">
+        <v>4</v>
+      </c>
+      <c r="C78" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="7">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
